--- a/UI/bin/Debug/Excel/PutawayTicket.xlsx
+++ b/UI/bin/Debug/Excel/PutawayTicket.xlsx
@@ -98,8 +98,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -130,6 +130,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -137,6 +144,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,78 +189,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,6 +212,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -236,40 +252,24 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -288,73 +288,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,114 +468,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -512,15 +512,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color auto="1"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,44 +530,29 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -573,23 +560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,6 +573,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,17 +601,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,20 +625,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -687,148 +659,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -839,13 +808,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1167,13 +1136,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" t="s">
@@ -1182,28 +1151,28 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
     </row>
     <row r="2" spans="5:7">
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="5:7">
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:13">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
       <c r="H4" t="s">
         <v>4</v>
       </c>
@@ -1215,33 +1184,33 @@
       </c>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="N5" s="8" t="s">
@@ -1249,48 +1218,86 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J7" t="s">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L7" t="s">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="N7" s="7"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/UI/bin/Debug/Excel/PutawayTicket.xlsx
+++ b/UI/bin/Debug/Excel/PutawayTicket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10395"/>
+    <workbookView windowWidth="20415" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>#SET TABLE COLUMNS 14</t>
+  </si>
   <si>
     <t>@var ticket=PutawayTicket;var item=PutawayTicketItem;""</t>
   </si>
@@ -98,8 +101,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -150,6 +153,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -175,14 +199,70 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,83 +275,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -288,37 +291,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,145 +435,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +541,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,6 +593,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -573,15 +624,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,45 +642,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -647,10 +650,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -659,137 +662,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -807,9 +810,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1139,17 +1139,20 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1166,60 +1169,60 @@
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1236,68 +1239,68 @@
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="M7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/UI/bin/Debug/Excel/PutawayTicket.xlsx
+++ b/UI/bin/Debug/Excel/PutawayTicket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20415" windowHeight="10575"/>
+    <workbookView windowWidth="21495" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
-  <si>
-    <t>#SET TABLE COLUMNS 14</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>@var ticket=PutawayTicket;var item=PutawayTicketItem;""</t>
   </si>
@@ -133,13 +130,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -148,35 +152,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,33 +166,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,6 +204,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -246,33 +244,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,54 +288,126 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -351,49 +420,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,78 +468,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -503,6 +500,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -533,7 +541,33 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -545,11 +579,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +624,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -587,8 +660,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,15 +683,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -627,21 +691,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -650,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -662,137 +711,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,13 +857,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1136,23 +1209,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1169,141 +1239,207 @@
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="I5" s="5"/>
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4" t="s">
+      <c r="K5" s="5"/>
+      <c r="L5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
+      <c r="M5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="N5" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
+      <c r="A6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="9"/>
+      <c r="H7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="9"/>
+      <c r="J7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="9"/>
+      <c r="L7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="35">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="E1:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/UI/bin/Debug/Excel/PutawayTicket.xlsx
+++ b/UI/bin/Debug/Excel/PutawayTicket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10395"/>
+    <workbookView windowWidth="20415" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+  <si>
+    <t>#SET TABLE COLUMNS 14</t>
+  </si>
   <si>
     <t>@var ticket=PutawayTicket;var item=PutawayTicketItem;""</t>
   </si>
@@ -96,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -129,6 +132,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -137,21 +224,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,109 +268,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +297,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -306,7 +375,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,157 +465,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,6 +593,15 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,18 +638,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,11 +688,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -699,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -711,137 +714,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,12 +867,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -1212,17 +1209,20 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1239,60 +1239,60 @@
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:13">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="L5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="14" t="s">
+      <c r="L5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="12" t="s">
         <v>15</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1310,96 +1310,96 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N7" s="7"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="7"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="7"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="11"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="11"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>

--- a/UI/bin/Debug/Excel/PutawayTicket.xlsx
+++ b/UI/bin/Debug/Excel/PutawayTicket.xlsx
@@ -73,7 +73,7 @@
     <t>@i+1</t>
   </si>
   <si>
-    <t>@item[i].SupplyNumber</t>
+    <t>@item[i].SupplyNo</t>
   </si>
   <si>
     <t>@item[i].ComponentName</t>
@@ -101,8 +101,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -132,6 +132,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -140,137 +269,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,79 +291,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,103 +471,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,10 +597,75 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -621,47 +686,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -670,30 +694,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +714,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,7 +1209,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>

--- a/UI/bin/Debug/Excel/PutawayTicket.xlsx
+++ b/UI/bin/Debug/Excel/PutawayTicket.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20415" windowHeight="10575"/>
+    <workbookView windowWidth="21495" windowHeight="10395"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
-  <si>
-    <t>#SET TABLE COLUMNS 14</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>@var ticket=PutawayTicket;var item=PutawayTicketItem;""</t>
   </si>
@@ -88,10 +85,10 @@
     <t>@item[i].TargetStorageLocation</t>
   </si>
   <si>
-    <t>@item[i].ScheduledMoveCount*item[i].UnitAmount</t>
-  </si>
-  <si>
-    <t>@item[i].MoveCount*item[i].UnitAmount</t>
+    <t>@item[i].ScheduledMoveCount</t>
+  </si>
+  <si>
+    <t>@item[i].PutawayAmount</t>
   </si>
 </sst>
 </file>
@@ -133,10 +130,47 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,110 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -268,9 +198,76 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,37 +288,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,139 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,6 +590,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -638,26 +650,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,9 +683,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -702,10 +699,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -714,133 +711,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1209,20 +1206,17 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
+    <row r="1" spans="2:7">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1239,60 +1233,60 @@
     </row>
     <row r="4" ht="13" customHeight="1" spans="1:13">
       <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
         <v>5</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="N5" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="N5" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1310,33 +1304,33 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>19</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7" s="9"/>
       <c r="L7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="N7" s="7"/>
     </row>

--- a/UI/bin/Debug/Excel/PutawayTicket.xlsx
+++ b/UI/bin/Debug/Excel/PutawayTicket.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
-  <si>
-    <t>#SET TABLE COLUMNS 12</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+  <si>
+    <t>#SET TABLE COLUMNS 11</t>
   </si>
   <si>
     <t>@var ticket=PutawayTicket;var item=PutawayTicketItem;""</t>
@@ -58,13 +58,10 @@
     <t>上架库位</t>
   </si>
   <si>
-    <t>上架数</t>
-  </si>
-  <si>
-    <t>上架总数</t>
-  </si>
-  <si>
-    <t>实上数</t>
+    <t>计划上架总数</t>
+  </si>
+  <si>
+    <t>实际上架数</t>
   </si>
   <si>
     <t>#REPEAT AREA 1 14 VAR i IN range(item.length)</t>
@@ -85,13 +82,10 @@
     <t>@item[i].TargetStorageLocation</t>
   </si>
   <si>
-    <t>@item[i].ScheduledMoveCount.toString()+item[i].Unit</t>
-  </si>
-  <si>
-    <t>@item[i].ScheduledMoveCount*item[i].UnitAmount</t>
-  </si>
-  <si>
-    <t>@item[i].MoveCount</t>
+    <t>@item[i].ScheduledMoveCount==null?'':item[i].ScheduledMoveCount+'个'</t>
+  </si>
+  <si>
+    <t>@item[i].PutawayAmount==null?'':item[i].PutawayAmount+'个'</t>
   </si>
 </sst>
 </file>
@@ -100,9 +94,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -148,6 +142,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -155,27 +156,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -191,38 +177,30 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,50 +214,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -290,6 +244,46 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,17 +512,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,36 +536,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -600,12 +568,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,10 +608,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,133 +620,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1118,10 +1112,14 @@
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="10" max="10" width="12.4867256637168" customWidth="1"/>
+    <col min="11" max="11" width="11.353982300885" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
@@ -1178,7 +1176,7 @@
       <c r="I4" s="12"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1204,13 +1202,10 @@
       <c r="K5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -1222,36 +1217,32 @@
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" spans="1:12">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12">
